--- a/codigo/Webots_integracion_fisica/Webots/controllers/Supervisor_simulacion_y_fisico_demo/finaltrials_tables.xlsx
+++ b/codigo/Webots_integracion_fisica/Webots/controllers/Supervisor_simulacion_y_fisico_demo/finaltrials_tables.xlsx
@@ -489,14 +489,14 @@
         <v>2.89</v>
       </c>
       <c r="C2" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>32.87%</t>
+          <t>37.72%</t>
         </is>
       </c>
     </row>
@@ -510,14 +510,14 @@
         <v>0.34</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>52.94%</t>
+          <t>44.12%</t>
         </is>
       </c>
     </row>
@@ -531,14 +531,14 @@
         <v>148.2</v>
       </c>
       <c r="C4" t="n">
-        <v>37.44</v>
+        <v>41.22</v>
       </c>
       <c r="D4" t="n">
-        <v>110.76</v>
+        <v>106.98</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.74%</t>
+          <t>72.19%</t>
         </is>
       </c>
     </row>
@@ -573,14 +573,14 @@
         <v>46.31</v>
       </c>
       <c r="C6" t="n">
-        <v>14.21</v>
+        <v>14.27</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1</v>
+        <v>32.04</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.32%</t>
+          <t>69.19%</t>
         </is>
       </c>
     </row>
@@ -594,14 +594,14 @@
         <v>120.92</v>
       </c>
       <c r="C7" t="n">
-        <v>29.12</v>
+        <v>28.74</v>
       </c>
       <c r="D7" t="n">
-        <v>91.8</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.92%</t>
+          <t>76.23%</t>
         </is>
       </c>
     </row>
@@ -615,14 +615,14 @@
         <v>129.55</v>
       </c>
       <c r="C8" t="n">
-        <v>29.44</v>
+        <v>30.4</v>
       </c>
       <c r="D8" t="n">
-        <v>100.11</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77.28%</t>
+          <t>76.53%</t>
         </is>
       </c>
     </row>
@@ -636,14 +636,14 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32</v>
+        <v>1.66</v>
       </c>
       <c r="D9" t="n">
-        <v>8.31</v>
+        <v>6.97</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96.29%</t>
+          <t>80.76%</t>
         </is>
       </c>
     </row>
